--- a/data/case1/18/V1_14.xlsx
+++ b/data/case1/18/V1_14.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999813689144</v>
+        <v>0.99999999825041397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.9969480265366002</v>
+        <v>0.99759413077346359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99117639344997999</v>
+        <v>0.9921984474598311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99279530568257468</v>
+        <v>0.99409703316125653</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98122167425333739</v>
+        <v>0.98281375739562082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95317503746499765</v>
+        <v>0.95538787411995629</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.94786457439576743</v>
+        <v>0.95331861615370395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94071000359408563</v>
+        <v>0.94964367894257018</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93233382003434462</v>
+        <v>0.94748950114919062</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92487205614615853</v>
+        <v>0.94627208852747313</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92380839234873791</v>
+        <v>0.9461572579059736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92204072164976747</v>
+        <v>0.94619522973527004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.91075281080118864</v>
+        <v>0.94881209472102501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90658518308925529</v>
+        <v>0.95099144357740517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.90399353394186366</v>
+        <v>0.95423867695041964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90148693768412413</v>
+        <v>0.95859699588129366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.89777887209037166</v>
+        <v>0.95488933015564159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.89666992941156365</v>
+        <v>0.95378040758919891</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9928255494920355</v>
+        <v>0.99482482903293812</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.96439337443370798</v>
+        <v>0.98770757176798751</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.956319521060774</v>
+        <v>0.9863090448630778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.95505499437771246</v>
+        <v>0.98504453267020842</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98414197419399962</v>
+        <v>0.98516409503145708</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97112149862984731</v>
+        <v>0.97214368811185126</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96466455789090522</v>
+        <v>0.96568675825796657</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95031431826582891</v>
+        <v>0.95173360556228015</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.94657501041217706</v>
+        <v>0.94688868998081976</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.93043713361471614</v>
+        <v>0.92542119261253153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91911618612606072</v>
+        <v>0.91015155038792694</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.91443397902721268</v>
+        <v>0.90358141313051266</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.91184043677749926</v>
+        <v>0.89592759289822332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.91194051737046244</v>
+        <v>0.89424820269600092</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.91378882619778001</v>
+        <v>0.89372816919394205</v>
       </c>
     </row>
   </sheetData>
